--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-368243.7786083714</v>
+        <v>-370903.1693100911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11338326.85058451</v>
+        <v>11338326.8505845</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>110.9375624005328</v>
+        <v>13.36947747424265</v>
       </c>
       <c r="H2" t="n">
-        <v>319.6758027219778</v>
+        <v>318.771148790973</v>
       </c>
       <c r="I2" t="n">
-        <v>135.9438818439015</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.9659064044097</v>
       </c>
       <c r="T2" t="n">
         <v>214.6330037351249</v>
@@ -716,16 +716,16 @@
         <v>251.1909921045651</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>64.5511009589481</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>102.245459762452</v>
       </c>
       <c r="I3" t="n">
-        <v>53.78292798254635</v>
+        <v>53.78292798254638</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>35.93520916873156</v>
+        <v>35.9352091687316</v>
       </c>
       <c r="S3" t="n">
         <v>152.4699175854099</v>
@@ -792,7 +792,7 @@
         <v>195.9954299974343</v>
       </c>
       <c r="U3" t="n">
-        <v>123.8912477247014</v>
+        <v>225.8733304156203</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>154.5170303828789</v>
+        <v>0.1754081509285157</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.04857142269688</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.54637954072466</v>
       </c>
       <c r="R4" t="n">
         <v>138.3012002237164</v>
       </c>
       <c r="S4" t="n">
-        <v>102.2053146096655</v>
+        <v>208.9037734431248</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>316.0758683040145</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>389.2766704687291</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>200.7632176007441</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>135.1427053245156</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1604110358602</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>211.6630066239244</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>72.16717921355901</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>240.4775567266746</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1309,7 +1309,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>61.73532966394982</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>143.8574124671183</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>332.5457493609855</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>179.8015280947512</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>9.655105041051746</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.69087915895345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819397</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>41.02686156549898</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>237.1280940168089</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000772</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>81.07546534818403</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>39.52129633183083</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.74133133758689</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>37.19933342822722</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>102.5041944721329</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053466</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784696</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>179.2445652598087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>23.1099832571722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410134</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703274</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>24.06466448613914</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428124</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053457</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1034.512738798431</v>
+        <v>1148.438638941939</v>
       </c>
       <c r="C2" t="n">
-        <v>1034.512738798431</v>
+        <v>779.4761220015273</v>
       </c>
       <c r="D2" t="n">
-        <v>1034.512738798431</v>
+        <v>779.4761220015273</v>
       </c>
       <c r="E2" t="n">
-        <v>1034.512738798431</v>
+        <v>393.6878694032831</v>
       </c>
       <c r="F2" t="n">
-        <v>623.5268340088235</v>
+        <v>386.7423686540796</v>
       </c>
       <c r="G2" t="n">
-        <v>511.4686901699015</v>
+        <v>373.2378459528244</v>
       </c>
       <c r="H2" t="n">
-        <v>188.5638389355804</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>201.8591892086714</v>
+        <v>201.8591892086713</v>
       </c>
       <c r="K2" t="n">
-        <v>227.4289843315411</v>
+        <v>548.3329427769938</v>
       </c>
       <c r="L2" t="n">
-        <v>709.5369404802964</v>
+        <v>1030.440898925749</v>
       </c>
       <c r="M2" t="n">
-        <v>1262.581479426995</v>
+        <v>1583.485437872447</v>
       </c>
       <c r="N2" t="n">
-        <v>1809.942859658303</v>
+        <v>1905.984262360878</v>
       </c>
       <c r="O2" t="n">
-        <v>2281.613051838712</v>
+        <v>2000.662275091169</v>
       </c>
       <c r="P2" t="n">
         <v>2365.547488734044</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2395.707099708832</v>
       </c>
       <c r="T2" t="n">
-        <v>2345.538314526292</v>
+        <v>2178.906085834969</v>
       </c>
       <c r="U2" t="n">
-        <v>2091.810039673196</v>
+        <v>1925.177810981872</v>
       </c>
       <c r="V2" t="n">
-        <v>1760.747152329625</v>
+        <v>1925.177810981872</v>
       </c>
       <c r="W2" t="n">
-        <v>1407.978497059511</v>
+        <v>1925.177810981872</v>
       </c>
       <c r="X2" t="n">
-        <v>1034.512738798431</v>
+        <v>1925.177810981872</v>
       </c>
       <c r="Y2" t="n">
-        <v>1034.512738798431</v>
+        <v>1535.038479006061</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4404,28 @@
         <v>105.5729764493631</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K3" t="n">
-        <v>80.14400076498879</v>
+        <v>341.9645854074414</v>
       </c>
       <c r="L3" t="n">
-        <v>532.4543543961422</v>
+        <v>427.14299718817</v>
       </c>
       <c r="M3" t="n">
-        <v>1112.258424622889</v>
+        <v>1006.947067414916</v>
       </c>
       <c r="N3" t="n">
-        <v>1691.749918321147</v>
+        <v>1617.803839507165</v>
       </c>
       <c r="O3" t="n">
-        <v>2184.14884597725</v>
+        <v>2110.202767163268</v>
       </c>
       <c r="P3" t="n">
-        <v>2562.339328400155</v>
+        <v>2488.393249586173</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,19 +4440,19 @@
         <v>2174.055937741998</v>
       </c>
       <c r="U3" t="n">
-        <v>2048.913263272603</v>
+        <v>1945.9010585343</v>
       </c>
       <c r="V3" t="n">
-        <v>1813.76115504086</v>
+        <v>1710.748950302558</v>
       </c>
       <c r="W3" t="n">
-        <v>1559.523798312658</v>
+        <v>1456.511593574356</v>
       </c>
       <c r="X3" t="n">
-        <v>1351.672298107125</v>
+        <v>1248.660093368823</v>
       </c>
       <c r="Y3" t="n">
-        <v>1143.911999342172</v>
+        <v>1040.899794603869</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2091.413903933065</v>
+        <v>515.1631905266463</v>
       </c>
       <c r="C4" t="n">
-        <v>1922.477721005158</v>
+        <v>346.2270075987394</v>
       </c>
       <c r="D4" t="n">
-        <v>1922.477721005158</v>
+        <v>346.2270075987394</v>
       </c>
       <c r="E4" t="n">
-        <v>1922.477721005158</v>
+        <v>198.3139140163463</v>
       </c>
       <c r="F4" t="n">
-        <v>1922.477721005158</v>
+        <v>51.42396651843595</v>
       </c>
       <c r="G4" t="n">
-        <v>1922.477721005158</v>
+        <v>51.42396651843595</v>
       </c>
       <c r="H4" t="n">
-        <v>1766.399912537604</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>1766.399912537604</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1734.027618171243</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K4" t="n">
-        <v>1811.725463583013</v>
+        <v>128.9446319797723</v>
       </c>
       <c r="L4" t="n">
-        <v>1966.678389881129</v>
+        <v>283.8975582778888</v>
       </c>
       <c r="M4" t="n">
-        <v>2140.443647753578</v>
+        <v>457.6628161503377</v>
       </c>
       <c r="N4" t="n">
-        <v>2315.511772600122</v>
+        <v>632.730940996881</v>
       </c>
       <c r="O4" t="n">
-        <v>2461.199225978521</v>
+        <v>778.4183943752801</v>
       </c>
       <c r="P4" t="n">
-        <v>2562.339328400155</v>
+        <v>879.5584967969148</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>865.8752851396172</v>
       </c>
       <c r="R4" t="n">
-        <v>2422.641146355998</v>
+        <v>726.1771030954592</v>
       </c>
       <c r="S4" t="n">
-        <v>2319.403454831083</v>
+        <v>515.1631905266463</v>
       </c>
       <c r="T4" t="n">
-        <v>2319.403454831083</v>
+        <v>515.1631905266463</v>
       </c>
       <c r="U4" t="n">
-        <v>2319.403454831083</v>
+        <v>515.1631905266463</v>
       </c>
       <c r="V4" t="n">
-        <v>2319.403454831083</v>
+        <v>515.1631905266463</v>
       </c>
       <c r="W4" t="n">
-        <v>2319.403454831083</v>
+        <v>515.1631905266463</v>
       </c>
       <c r="X4" t="n">
-        <v>2091.413903933065</v>
+        <v>515.1631905266463</v>
       </c>
       <c r="Y4" t="n">
-        <v>2091.413903933065</v>
+        <v>515.1631905266463</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1298.322231513479</v>
+        <v>1994.770811397752</v>
       </c>
       <c r="C5" t="n">
-        <v>929.3597145730675</v>
+        <v>1675.502257555313</v>
       </c>
       <c r="D5" t="n">
-        <v>571.0940159663171</v>
+        <v>1317.236558948563</v>
       </c>
       <c r="E5" t="n">
-        <v>571.0940159663171</v>
+        <v>1317.236558948563</v>
       </c>
       <c r="F5" t="n">
-        <v>564.1485152171136</v>
+        <v>906.2506541589553</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>489.1628723953828</v>
       </c>
       <c r="H5" t="n">
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>239.8866855817394</v>
@@ -4571,19 +4571,19 @@
         <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>959.6534908014927</v>
+        <v>1196.167056847984</v>
       </c>
       <c r="M5" t="n">
-        <v>1146.3529036269</v>
+        <v>1523.345083077018</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518883</v>
+        <v>1717.679295969</v>
       </c>
       <c r="O5" t="n">
         <v>1887.84832128596</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625255</v>
+        <v>2317.163367625254</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896983</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.124290896983</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="V5" t="n">
-        <v>2075.061403553413</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="W5" t="n">
-        <v>2075.061403553413</v>
+        <v>1994.770811397752</v>
       </c>
       <c r="X5" t="n">
-        <v>2075.061403553413</v>
+        <v>1994.770811397752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1684.922071577601</v>
+        <v>1994.770811397752</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.7636139849254</v>
+        <v>964.6684709946088</v>
       </c>
       <c r="C6" t="n">
-        <v>744.3105847037984</v>
+        <v>790.2154417134818</v>
       </c>
       <c r="D6" t="n">
-        <v>595.3761750425472</v>
+        <v>641.2810320522306</v>
       </c>
       <c r="E6" t="n">
-        <v>436.1387200370916</v>
+        <v>482.0435770467751</v>
       </c>
       <c r="F6" t="n">
-        <v>289.6041620639766</v>
+        <v>335.5090190736601</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1627644231985</v>
+        <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>51.24678656800311</v>
+        <v>97.15164357768661</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>169.9060384248988</v>
@@ -4653,16 +4653,16 @@
         <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>1637.874966375866</v>
       </c>
       <c r="N6" t="n">
-        <v>1673.500236059666</v>
+        <v>1881.476750918156</v>
       </c>
       <c r="O6" t="n">
-        <v>2222.936244812389</v>
+        <v>2430.912759670879</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4674,22 +4674,22 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825065</v>
+        <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>1991.980214935424</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
-        <v>1756.828106703682</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1502.59074997548</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1294.739249769947</v>
+        <v>1269.391591170753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1086.978951004993</v>
+        <v>1132.883808014677</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.9706508376657</v>
+        <v>340.5229964509498</v>
       </c>
       <c r="C7" t="n">
-        <v>217.0344679097588</v>
+        <v>340.5229964509498</v>
       </c>
       <c r="D7" t="n">
-        <v>217.0344679097588</v>
+        <v>340.5229964509498</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>340.5229964509498</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>193.6330489530394</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>193.6330489530394</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>193.6330489530394</v>
       </c>
       <c r="I7" t="n">
         <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4750,25 +4750,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>843.7411832797532</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>843.7411832797532</v>
       </c>
       <c r="U7" t="n">
-        <v>762.0292916050275</v>
+        <v>629.9401664879103</v>
       </c>
       <c r="V7" t="n">
-        <v>507.3448033991407</v>
+        <v>629.9401664879103</v>
       </c>
       <c r="W7" t="n">
-        <v>507.3448033991407</v>
+        <v>340.5229964509498</v>
       </c>
       <c r="X7" t="n">
-        <v>507.3448033991407</v>
+        <v>340.5229964509498</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3448033991407</v>
+        <v>340.5229964509498</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1321.26637541962</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
-        <v>1321.26637541962</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>1321.26637541962</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4799,16 +4799,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.405707395431</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1321.26637541962</v>
+        <v>1588.383781964454</v>
       </c>
     </row>
     <row r="9">
@@ -4869,40 +4869,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.337655158939</v>
+        <v>939.770065904978</v>
       </c>
       <c r="C10" t="n">
-        <v>727.337655158939</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D10" t="n">
-        <v>577.2210157466033</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>577.2210157466033</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>430.3310682486929</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>262.3446035569715</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>113.6057054204777</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4990,22 +4990,22 @@
         <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1388.552195946525</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1388.552195946525</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093917</v>
+        <v>1388.552195946525</v>
       </c>
       <c r="W10" t="n">
-        <v>955.3272060569564</v>
+        <v>1388.552195946525</v>
       </c>
       <c r="X10" t="n">
-        <v>727.337655158939</v>
+        <v>1160.562645048508</v>
       </c>
       <c r="Y10" t="n">
-        <v>727.337655158939</v>
+        <v>939.770065904978</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.468935552208</v>
+        <v>1485.490329133572</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.506418611796</v>
+        <v>1116.527812193161</v>
       </c>
       <c r="D11" t="n">
-        <v>962.2407200050453</v>
+        <v>780.623014858832</v>
       </c>
       <c r="E11" t="n">
-        <v>576.4524674068011</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="F11" t="n">
-        <v>576.4524674068011</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
         <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706888</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625329</v>
@@ -5054,37 +5054,37 @@
         <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535295</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
         <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345378</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3523.505408466906</v>
+        <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>3192.442521123336</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2839.673865853221</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2466.208107592141</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2076.068775616329</v>
+        <v>1872.090169197694</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5103,40 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592073</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>272.7431585655885</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4401992235399</v>
+        <v>889.4740370626173</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.396765180068</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881278</v>
+        <v>1933.239912720356</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>404.9049198716659</v>
       </c>
       <c r="C13" t="n">
-        <v>925.5163587547371</v>
+        <v>404.9049198716659</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424013</v>
+        <v>254.7882804593302</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600082</v>
+        <v>245.0356491047325</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620978</v>
+        <v>245.0356491047325</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.169024664815</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276104</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1949.247121276104</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1660.155428225555</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1660.155428225555</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1370.738258188594</v>
+        <v>814.5429355999231</v>
       </c>
       <c r="X13" t="n">
-        <v>1370.738258188594</v>
+        <v>586.5533847019058</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.101006512884</v>
+        <v>586.5533847019057</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832662</v>
+        <v>2338.476105524078</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832662</v>
+        <v>2338.476105524078</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.84215317686</v>
+        <v>2049.400878868276</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1794.716390662389</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1505.299220625428</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1277.309669727411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>1056.51709058388</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5516,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5598,19 +5598,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>659.9487421954782</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356196</v>
+        <v>491.0125592675713</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232839</v>
+        <v>491.0125592675713</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408908</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429804</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580259</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>841.5972070257179</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2404.800122633204</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2221.945288288108</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2002.343823311049</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1458.58410844936</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.166938412399</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>941.1773875143815</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511909</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C25" t="n">
-        <v>779.614337923284</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D25" t="n">
-        <v>779.614337923284</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408909</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2342.342295561726</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2122.740830584667</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1578.981115722978</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X25" t="n">
-        <v>1350.991564824961</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="26">
@@ -6230,16 +6230,16 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876694</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797187</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179091</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6971,7 +6971,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.853600740072</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121651</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121651</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121651</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121651</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703117</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,7 +7205,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7360,7 +7360,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1688.385853854706</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,7 +7570,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797744</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,10 +7682,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270438</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,13 +7988,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>210.2130297222094</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>38.01004479012519</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>29.11089843987671</v>
+        <v>29.11089843987679</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>447.6602749556838</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.943396187479408</v>
+        <v>82.63640509049189</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,16 +8219,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>178.7586225842976</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>141.897589296592</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>459.2743913378117</v>
       </c>
       <c r="N6" t="n">
-        <v>294.5961368238072</v>
+        <v>45.39903322184426</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>22.13729225969746</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>230.6680788185147</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>136.7788576055174</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>124.8937741931413</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>139.9994244361456</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>15.00954930701915</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891669</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>144.6341900408531</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>127.725524766797</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>24.6339153725348</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>143.8269525734174</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>184.0188038644581</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823074</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194139</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194176</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194264</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25801,10 +25801,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>201.644990902898</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="C2" t="n">
         <v>287364.6194524991</v>
-      </c>
-      <c r="C2" t="n">
-        <v>287364.6194524992</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524993</v>
@@ -26323,13 +26323,13 @@
         <v>256406.2354960387</v>
       </c>
       <c r="F2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="G2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="H2" t="n">
         <v>282501.3098915022</v>
-      </c>
-      <c r="G2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282501.3098915023</v>
       </c>
       <c r="I2" t="n">
         <v>282501.3098915022</v>
@@ -26344,16 +26344,16 @@
         <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="P2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678074.6944992436</v>
+        <v>678074.6944992433</v>
       </c>
       <c r="C3" t="n">
-        <v>102513.4470555625</v>
+        <v>102513.4470555629</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545772</v>
+        <v>313577.1573545777</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704291</v>
+        <v>189308.2687704287</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.291053439883838e-11</v>
+        <v>2.493968250307481e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273077</v>
+        <v>81897.40371273085</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202363</v>
+        <v>49839.57413202358</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7401.949902073127</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.368461719634</v>
+      </c>
+      <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.368461719654</v>
-      </c>
       <c r="H4" t="n">
-        <v>7507.36846171967</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.3684617197</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719672</v>
+        <v>7507.368461719651</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.36846171971</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719679</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719688</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719682</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83058.74367843164</v>
+        <v>83058.74367843162</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-694410.1619490577</v>
+        <v>-694410.1619490572</v>
       </c>
       <c r="C6" t="n">
-        <v>-98974.39904226775</v>
+        <v>-98974.3990422682</v>
       </c>
       <c r="D6" t="n">
-        <v>-230372.0260571163</v>
+        <v>-230372.0260571162</v>
       </c>
       <c r="E6" t="n">
-        <v>-149710.3568279973</v>
+        <v>-149931.4881419725</v>
       </c>
       <c r="F6" t="n">
-        <v>-15436.85716455369</v>
+        <v>-15471.59508998896</v>
       </c>
       <c r="G6" t="n">
-        <v>173871.4116058755</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="H6" t="n">
-        <v>173871.4116058755</v>
+        <v>173836.6736804397</v>
       </c>
       <c r="I6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804397</v>
       </c>
       <c r="J6" t="n">
-        <v>6266.233795892796</v>
+        <v>6231.495870457074</v>
       </c>
       <c r="K6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="L6" t="n">
-        <v>173871.4116058752</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="M6" t="n">
-        <v>91974.00789314466</v>
+        <v>91939.26996770882</v>
       </c>
       <c r="N6" t="n">
-        <v>124031.8374738518</v>
+        <v>123997.0995484161</v>
       </c>
       <c r="O6" t="n">
-        <v>173871.4116058753</v>
+        <v>173836.6736804395</v>
       </c>
       <c r="P6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804396</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.113816799854798e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.113816799854798e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719853</v>
+        <v>480.8984351719849</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26744,7 +26744,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.113816799854798e-14</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719853</v>
+        <v>480.8984351719849</v>
       </c>
       <c r="C3" t="n">
-        <v>112.5776651660797</v>
+        <v>112.5776651660801</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974111</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>302.4319150737099</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.9046539310048161</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>135.9438818439016</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.42897189744224</v>
+        <v>28.42897189744234</v>
       </c>
       <c r="S2" t="n">
-        <v>164.9659064044097</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>101.9820826909192</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>101.9820826909189</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.1237854589683</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>154.3416222319504</v>
       </c>
       <c r="I4" t="n">
-        <v>129.3715892953086</v>
+        <v>129.3715892953087</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>32.04857142269693</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.5463795407246</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>106.6984588334593</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>224.2403064031859</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>49.19702346699307</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>23.64023347720769</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>25.09418201320176</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>70.53999045278877</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.6715691460771</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27792,7 +27792,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>74.59764803417264</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>309.7631908587028</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>145.760381929379</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>43.06126553995076</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>76.89128353009369</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-2.398721221652522e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.566747394273988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.933260040892402</v>
+        <v>1.9332600408924</v>
       </c>
       <c r="H2" t="n">
-        <v>19.79899939378932</v>
+        <v>19.7989993937893</v>
       </c>
       <c r="I2" t="n">
-        <v>74.5320077265044</v>
+        <v>74.53200772650433</v>
       </c>
       <c r="J2" t="n">
-        <v>164.0830293956917</v>
+        <v>164.0830293956915</v>
       </c>
       <c r="K2" t="n">
-        <v>245.9179269266671</v>
+        <v>245.9179269266669</v>
       </c>
       <c r="L2" t="n">
-        <v>305.082933903128</v>
+        <v>305.0829339031277</v>
       </c>
       <c r="M2" t="n">
-        <v>339.4635471553482</v>
+        <v>339.463547155348</v>
       </c>
       <c r="N2" t="n">
-        <v>344.9564222465338</v>
+        <v>344.9564222465335</v>
       </c>
       <c r="O2" t="n">
-        <v>325.7325677149099</v>
+        <v>325.7325677149097</v>
       </c>
       <c r="P2" t="n">
-        <v>278.0052104553787</v>
+        <v>278.0052104553785</v>
       </c>
       <c r="Q2" t="n">
-        <v>208.7703352409195</v>
+        <v>208.7703352409193</v>
       </c>
       <c r="R2" t="n">
-        <v>121.4401460437074</v>
+        <v>121.4401460437073</v>
       </c>
       <c r="S2" t="n">
-        <v>44.05416318183565</v>
+        <v>44.05416318183562</v>
       </c>
       <c r="T2" t="n">
-        <v>8.462845829006493</v>
+        <v>8.462845829006486</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1546608032713921</v>
+        <v>0.154660803271392</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.034385313388799</v>
+        <v>1.034385313388798</v>
       </c>
       <c r="H3" t="n">
-        <v>9.989984474044451</v>
+        <v>9.989984474044444</v>
       </c>
       <c r="I3" t="n">
-        <v>35.61370486886873</v>
+        <v>35.6137048688687</v>
       </c>
       <c r="J3" t="n">
-        <v>97.72672822678999</v>
+        <v>97.7267282267899</v>
       </c>
       <c r="K3" t="n">
-        <v>167.0305442238395</v>
+        <v>167.0305442238393</v>
       </c>
       <c r="L3" t="n">
-        <v>224.5931795583881</v>
+        <v>224.5931795583879</v>
       </c>
       <c r="M3" t="n">
-        <v>262.089647168732</v>
+        <v>262.0896471687317</v>
       </c>
       <c r="N3" t="n">
-        <v>269.0263802572034</v>
+        <v>269.0263802572032</v>
       </c>
       <c r="O3" t="n">
-        <v>246.106579365799</v>
+        <v>246.1065793657988</v>
       </c>
       <c r="P3" t="n">
-        <v>197.5222270803575</v>
+        <v>197.5222270803574</v>
       </c>
       <c r="Q3" t="n">
-        <v>132.0383778985421</v>
+        <v>132.038377898542</v>
       </c>
       <c r="R3" t="n">
-        <v>64.22262498391157</v>
+        <v>64.22262498391153</v>
       </c>
       <c r="S3" t="n">
-        <v>19.21325351842789</v>
+        <v>19.21325351842788</v>
       </c>
       <c r="T3" t="n">
-        <v>4.169298697387306</v>
+        <v>4.169298697387302</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06805166535452625</v>
+        <v>0.0680516653545262</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8671938994904652</v>
+        <v>0.8671938994904645</v>
       </c>
       <c r="H4" t="n">
-        <v>7.710142124560687</v>
+        <v>7.710142124560681</v>
       </c>
       <c r="I4" t="n">
-        <v>26.07888563194964</v>
+        <v>26.07888563194961</v>
       </c>
       <c r="J4" t="n">
-        <v>61.31060869397589</v>
+        <v>61.31060869397584</v>
       </c>
       <c r="K4" t="n">
-        <v>100.7521639589831</v>
+        <v>100.752163958983</v>
       </c>
       <c r="L4" t="n">
-        <v>128.9280821115188</v>
+        <v>128.9280821115187</v>
       </c>
       <c r="M4" t="n">
-        <v>135.9365855355827</v>
+        <v>135.9365855355825</v>
       </c>
       <c r="N4" t="n">
         <v>132.7043173647546</v>
       </c>
       <c r="O4" t="n">
-        <v>122.5739159025251</v>
+        <v>122.573915902525</v>
       </c>
       <c r="P4" t="n">
-        <v>104.8831603529195</v>
+        <v>104.8831603529194</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.61566371096978</v>
+        <v>72.61566371096973</v>
       </c>
       <c r="R4" t="n">
-        <v>38.99219115345309</v>
+        <v>38.99219115345306</v>
       </c>
       <c r="S4" t="n">
-        <v>15.11282459384747</v>
+        <v>15.11282459384745</v>
       </c>
       <c r="T4" t="n">
-        <v>3.705283025095623</v>
+        <v>3.70528302509562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04730148542675271</v>
+        <v>0.04730148542675267</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>335.0187042770537</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>225.1169475382824</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>152.1337400410791</v>
+        <v>152.133740041079</v>
       </c>
       <c r="K2" t="n">
-        <v>25.82807588168652</v>
+        <v>349.973488452851</v>
       </c>
       <c r="L2" t="n">
-        <v>486.9777334835912</v>
+        <v>486.9777334835909</v>
       </c>
       <c r="M2" t="n">
-        <v>558.630847420908</v>
+        <v>558.6308474209077</v>
       </c>
       <c r="N2" t="n">
-        <v>552.890283061927</v>
+        <v>325.756388372152</v>
       </c>
       <c r="O2" t="n">
-        <v>476.4345375559685</v>
+        <v>95.63435629322296</v>
       </c>
       <c r="P2" t="n">
-        <v>84.7822594902344</v>
+        <v>368.5709228715916</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.7796360263747</v>
+        <v>198.7796360263745</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>29.18910524948049</v>
+        <v>293.6543422620589</v>
       </c>
       <c r="L3" t="n">
-        <v>456.8791450819731</v>
+        <v>86.03879977851372</v>
       </c>
       <c r="M3" t="n">
-        <v>585.6606769967136</v>
+        <v>585.6606769967134</v>
       </c>
       <c r="N3" t="n">
-        <v>585.3449431295539</v>
+        <v>617.0270425174234</v>
       </c>
       <c r="O3" t="n">
-        <v>497.372654198084</v>
+        <v>497.3726541980839</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0105883059645</v>
+        <v>382.0105883059643</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>74.69300890301237</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.48267213310028</v>
+        <v>78.48267213310019</v>
       </c>
       <c r="L4" t="n">
-        <v>156.518107371835</v>
+        <v>156.5181073718349</v>
       </c>
       <c r="M4" t="n">
-        <v>175.5204624974232</v>
+        <v>175.5204624974231</v>
       </c>
       <c r="N4" t="n">
         <v>176.8364897439832</v>
@@ -34872,7 +34872,7 @@
         <v>147.1590438165647</v>
       </c>
       <c r="P4" t="n">
-        <v>102.161719617813</v>
+        <v>102.1617196178129</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,16 +34939,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>319.4946385855635</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>330.4828547768018</v>
       </c>
       <c r="N5" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
@@ -35021,10 +35021,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>495.2595122305393</v>
+        <v>246.0624086285763</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35033,7 +35033,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>197.1772653026947</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>82.52070309383795</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36139,10 +36139,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010451</v>
@@ -38187,7 +38187,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
